--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>925389.7738963802</v>
+        <v>938585.6255557269</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.0964539</v>
+        <v>5435918.088148478</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668071</v>
+        <v>3904565.274227927</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7704938.778017522</v>
+        <v>8166240.650921358</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -665,13 +667,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>80.88319304891671</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>19.8984304622902</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -817,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>42.43741174507608</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -896,13 +898,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>207.6506684208453</v>
+        <v>391.1843661633719</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -947,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1057,7 +1059,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>136.5944971468583</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1148,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>4.702586979977263</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>145.652659768006</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>165.4216953850582</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>30.80323390365624</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>343.727549269963</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>79.29757956459487</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1546,7 +1548,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>165.4216953850582</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1618,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>186.9144583842969</v>
       </c>
       <c r="G14" t="n">
-        <v>45.82170770786904</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>42.4374117450767</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>46.9507788414094</v>
       </c>
       <c r="E22" t="n">
-        <v>71.52055186895362</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2254,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>9.724527833582366</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2572,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2618,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>88.08110241150655</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128935</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>356.8268763394486</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2807,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.7315525093739</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2965,10 +2967,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>27.35334490128935</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>181.5733848809636</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>50.61039643672338</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>164.5078794940947</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3253,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>165.9184445944652</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3487,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.595211067239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>10.75225210311722</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>153.0251390105131</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>359.5323553453206</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>306.830139200297</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3910,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>162.8849810482518</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>165.4216953850582</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>170.5136410663177</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3989,7 +3991,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0.9202602248441235</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.732648816083</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1777.944456830383</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C2" t="n">
-        <v>1367.819866143654</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D2" t="n">
-        <v>963.3559362367141</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>549.0157207536108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>467.315525754705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>596.7467427565767</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L2" t="n">
-        <v>1309.338142568815</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M2" t="n">
-        <v>2034.355257957088</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N2" t="n">
-        <v>2285.731225959755</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O2" t="n">
-        <v>2929.36208237686</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2579.524527713341</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2579.524527713341</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X2" t="n">
-        <v>2178.881129882293</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1777.944456830383</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>251.4000992101705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>251.4000992101705</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L3" t="n">
-        <v>646.5427122012401</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M3" t="n">
-        <v>1371.559827589513</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N3" t="n">
-        <v>1371.559827589513</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1399.96318575601</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>1399.96318575601</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>1399.96318575601</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>1399.96318575601</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.96318575601</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>1399.96318575601</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>1399.96318575601</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1414.045735161221</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.598062883459</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.495163163519</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>2117.759219604013</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>2398.598001998263</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>2658.158612324737</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2863.834052574349</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>2886.496009907086</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>2603.69786245321</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>2329.812117392732</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>2050.742452901607</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>1812.39859076129</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y4" t="n">
-        <v>1587.662892150055</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1495.354347776272</v>
+        <v>2113.456380014572</v>
       </c>
       <c r="C5" t="n">
-        <v>1495.354347776272</v>
+        <v>1703.331789327842</v>
       </c>
       <c r="D5" t="n">
-        <v>1495.354347776272</v>
+        <v>1703.331789327842</v>
       </c>
       <c r="E5" t="n">
-        <v>1285.606197856226</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F5" t="n">
-        <v>864.5757858099139</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G5" t="n">
-        <v>455.8475017027461</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K5" t="n">
-        <v>850.932214224331</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="L5" t="n">
-        <v>1563.523614036569</v>
+        <v>1047.9539810018</v>
       </c>
       <c r="M5" t="n">
-        <v>2288.540729424842</v>
+        <v>1824.272571993554</v>
       </c>
       <c r="N5" t="n">
-        <v>2608.201075581568</v>
+        <v>2577.453588632172</v>
       </c>
       <c r="O5" t="n">
-        <v>2608.201075581568</v>
+        <v>3221.084445049277</v>
       </c>
       <c r="P5" t="n">
-        <v>2608.201075581568</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T5" t="n">
-        <v>2707.155598323719</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U5" t="n">
-        <v>2707.155598323719</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V5" t="n">
-        <v>2707.155598323719</v>
+        <v>3709.01793142685</v>
       </c>
       <c r="W5" t="n">
-        <v>2707.155598323719</v>
+        <v>3325.257630562019</v>
       </c>
       <c r="X5" t="n">
-        <v>2306.512200492672</v>
+        <v>2924.614232730971</v>
       </c>
       <c r="Y5" t="n">
-        <v>1905.575527440762</v>
+        <v>2523.677559679061</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K6" t="n">
-        <v>251.4000992101705</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L6" t="n">
-        <v>646.5427122012401</v>
+        <v>742.2652816410956</v>
       </c>
       <c r="M6" t="n">
-        <v>1371.559827589513</v>
+        <v>742.2652816410956</v>
       </c>
       <c r="N6" t="n">
-        <v>1371.559827589513</v>
+        <v>1615.923373752713</v>
       </c>
       <c r="O6" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P6" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1126.400686813865</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C7" t="n">
-        <v>955.3073143755814</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D7" t="n">
-        <v>817.3330748333003</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E7" t="n">
-        <v>656.4222597016197</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F7" t="n">
-        <v>491.791133812211</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G7" t="n">
-        <v>324.5407427377544</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="V7" t="n">
-        <v>1314.100393207909</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="W7" t="n">
-        <v>1314.100393207909</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="X7" t="n">
-        <v>1314.100393207909</v>
+        <v>1582.946365028224</v>
       </c>
       <c r="Y7" t="n">
-        <v>1314.100393207909</v>
+        <v>1358.210666416988</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.810743970851</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.686153284121</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.686153284121</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E8" t="n">
-        <v>888.3459378010175</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F8" t="n">
-        <v>467.315525754705</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G8" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K8" t="n">
-        <v>123.1055953709714</v>
+        <v>282.2592718266461</v>
       </c>
       <c r="L8" t="n">
-        <v>835.6969951832094</v>
+        <v>994.8506716388841</v>
       </c>
       <c r="M8" t="n">
-        <v>1560.714110571482</v>
+        <v>1771.169262630638</v>
       </c>
       <c r="N8" t="n">
-        <v>2285.731225959755</v>
+        <v>2524.350279269256</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3167.981135686361</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>3701.367926831329</v>
       </c>
       <c r="U8" t="n">
-        <v>2929.36208237686</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V8" t="n">
-        <v>2924.611994518297</v>
+        <v>3094.46988042732</v>
       </c>
       <c r="W8" t="n">
-        <v>2924.611994518297</v>
+        <v>3094.46988042732</v>
       </c>
       <c r="X8" t="n">
-        <v>2523.96859668725</v>
+        <v>3094.46988042732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2123.03192363534</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J9" t="n">
-        <v>251.4000992101705</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K9" t="n">
-        <v>707.2063554754692</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L9" t="n">
-        <v>1368.294527394758</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M9" t="n">
-        <v>1368.294527394758</v>
+        <v>924.154190416374</v>
       </c>
       <c r="N9" t="n">
-        <v>1368.294527394758</v>
+        <v>1797.812282527992</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.5872416475372</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C10" t="n">
-        <v>58.5872416475372</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D10" t="n">
-        <v>58.5872416475372</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5872416475372</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F10" t="n">
-        <v>58.5872416475372</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G10" t="n">
-        <v>58.5872416475372</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="U10" t="n">
-        <v>793.9747653465236</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="V10" t="n">
-        <v>520.0890202860455</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="W10" t="n">
-        <v>241.0193557949199</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="X10" t="n">
-        <v>58.5872416475372</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.5872416475372</v>
+        <v>1358.210666416988</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1333.800530964582</v>
+        <v>2116.094389960957</v>
       </c>
       <c r="C11" t="n">
-        <v>1302.686153284121</v>
+        <v>1705.969799274227</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.686153284121</v>
+        <v>1301.505869367287</v>
       </c>
       <c r="E11" t="n">
-        <v>888.3459378010175</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="F11" t="n">
-        <v>467.315525754705</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L11" t="n">
-        <v>1309.338142568815</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M11" t="n">
-        <v>2034.355257957088</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N11" t="n">
-        <v>2759.372373345361</v>
+        <v>2564.906924958821</v>
       </c>
       <c r="O11" t="n">
-        <v>2929.36208237686</v>
+        <v>3208.537781375926</v>
       </c>
       <c r="P11" t="n">
-        <v>2929.36208237686</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V11" t="n">
-        <v>2929.36208237686</v>
+        <v>3711.655941373235</v>
       </c>
       <c r="W11" t="n">
-        <v>2545.601781512029</v>
+        <v>3327.895640508404</v>
       </c>
       <c r="X11" t="n">
-        <v>2144.958383680981</v>
+        <v>2927.252242677356</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.021710629071</v>
+        <v>2526.315569625446</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="N12" t="n">
-        <v>1371.559827589513</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="O12" t="n">
-        <v>2075.516918135407</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="P12" t="n">
-        <v>2075.516918135407</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q12" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>620.1747790227083</v>
+        <v>1170.510960022944</v>
       </c>
       <c r="C13" t="n">
-        <v>620.1747790227083</v>
+        <v>999.4175875846604</v>
       </c>
       <c r="D13" t="n">
-        <v>620.1747790227083</v>
+        <v>839.9229429075704</v>
       </c>
       <c r="E13" t="n">
-        <v>540.0762138059458</v>
+        <v>679.0121277758899</v>
       </c>
       <c r="F13" t="n">
-        <v>375.4450879165371</v>
+        <v>514.3810018864812</v>
       </c>
       <c r="G13" t="n">
-        <v>208.1946968420806</v>
+        <v>347.1306108120246</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>197.5231556174813</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S13" t="n">
-        <v>1401.594370148297</v>
+        <v>1358.210666416988</v>
       </c>
       <c r="T13" t="n">
-        <v>1401.594370148297</v>
+        <v>1358.210666416988</v>
       </c>
       <c r="U13" t="n">
-        <v>1118.796222694422</v>
+        <v>1358.210666416988</v>
       </c>
       <c r="V13" t="n">
-        <v>844.9104776339436</v>
+        <v>1358.210666416988</v>
       </c>
       <c r="W13" t="n">
-        <v>844.9104776339436</v>
+        <v>1358.210666416988</v>
       </c>
       <c r="X13" t="n">
-        <v>844.9104776339436</v>
+        <v>1358.210666416988</v>
       </c>
       <c r="Y13" t="n">
-        <v>620.1747790227083</v>
+        <v>1358.210666416988</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1333.800530964582</v>
+        <v>1498.908329015042</v>
       </c>
       <c r="C14" t="n">
-        <v>923.6759402778517</v>
+        <v>1088.783738328312</v>
       </c>
       <c r="D14" t="n">
-        <v>519.2120103709123</v>
+        <v>684.3198084213723</v>
       </c>
       <c r="E14" t="n">
-        <v>104.871794887809</v>
+        <v>269.979592938269</v>
       </c>
       <c r="F14" t="n">
-        <v>104.871794887809</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>313.8131143263232</v>
       </c>
       <c r="K14" t="n">
-        <v>596.7467427565767</v>
+        <v>851.9726154353627</v>
       </c>
       <c r="L14" t="n">
-        <v>1309.338142568815</v>
+        <v>1564.564015247601</v>
       </c>
       <c r="M14" t="n">
-        <v>2034.355257957088</v>
+        <v>2340.882606239355</v>
       </c>
       <c r="N14" t="n">
-        <v>2759.372373345361</v>
+        <v>3094.063622877973</v>
       </c>
       <c r="O14" t="n">
-        <v>2929.36208237686</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>3701.367926831329</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V14" t="n">
-        <v>2929.36208237686</v>
+        <v>3094.46988042732</v>
       </c>
       <c r="W14" t="n">
-        <v>2545.601781512029</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X14" t="n">
-        <v>2144.958383680981</v>
+        <v>2310.066181731441</v>
       </c>
       <c r="Y14" t="n">
-        <v>1744.021710629071</v>
+        <v>1909.129508679531</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M15" t="n">
-        <v>676.1022315638701</v>
+        <v>550.0511229147953</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>124.0431821915818</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>124.0431821915818</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>124.0431821915818</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>124.0431821915818</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>124.0431821915818</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>1327.777858888782</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>1053.892113828304</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>774.8224493371781</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>536.4785871968616</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>311.7428885856262</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5540,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N18" t="n">
-        <v>2139.732893541123</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5750,7 +5752,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5777,13 +5779,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
         <v>4144.752941388363</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.8163421076072</v>
+        <v>643.6436162255084</v>
       </c>
       <c r="C22" t="n">
-        <v>922.8163421076072</v>
+        <v>472.5502437872249</v>
       </c>
       <c r="D22" t="n">
-        <v>763.3216974305171</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5935,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>922.8163421076072</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W22" t="n">
-        <v>922.8163421076072</v>
+        <v>1069.687184759869</v>
       </c>
       <c r="X22" t="n">
-        <v>922.8163421076072</v>
+        <v>831.3433226195527</v>
       </c>
       <c r="Y22" t="n">
-        <v>922.8163421076072</v>
+        <v>831.3433226195527</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6017,13 +6019,13 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W23" t="n">
         <v>3760.992640523532</v>
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.1015439596227</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1015439596227</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1015439596227</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1015439596227</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1101.606613456028</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>1101.606613456028</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W25" t="n">
-        <v>822.5369489649024</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X25" t="n">
-        <v>822.5369489649024</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.8012503536671</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T26" t="n">
-        <v>4439.978400477999</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U26" t="n">
-        <v>4182.917908737509</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V26" t="n">
-        <v>3833.080354073989</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W26" t="n">
-        <v>3449.320053209158</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6314,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
         <v>1435.775802995229</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.119838211426</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773143</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096053</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964372</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I28" t="n">
         <v>3132.785987910289</v>
@@ -6406,28 +6408,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W28" t="n">
-        <v>4662.18488453114</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X28" t="n">
-        <v>4634.555243216706</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y28" t="n">
-        <v>4409.819544605471</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6549,19 +6551,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.6240469015422</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C31" t="n">
-        <v>745.5306744632587</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D31" t="n">
-        <v>586.0360297861687</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E31" t="n">
-        <v>425.1252146544881</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F31" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I31" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J31" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K31" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L31" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M31" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N31" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O31" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P31" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="T31" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="U31" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="V31" t="n">
-        <v>1350.978107866783</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="W31" t="n">
-        <v>1071.908443375657</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="X31" t="n">
-        <v>1071.908443375657</v>
+        <v>4634.555243216706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1071.908443375657</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="33">
@@ -6783,13 +6785,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>423.0977207349383</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.074801429505</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N33" t="n">
-        <v>2139.732893541123</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>252.7383423677128</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4611.063271968793</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>4371.514532945494</v>
       </c>
       <c r="U34" t="n">
-        <v>1456.473019064913</v>
+        <v>4088.716385491619</v>
       </c>
       <c r="V34" t="n">
-        <v>1182.587274004435</v>
+        <v>3814.830640431141</v>
       </c>
       <c r="W34" t="n">
-        <v>903.517609513309</v>
+        <v>3535.760975940015</v>
       </c>
       <c r="X34" t="n">
-        <v>665.1737473729925</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="Y34" t="n">
-        <v>440.4380487617572</v>
+        <v>3297.417113799698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
         <v>1320.262653899312</v>
@@ -6932,13 +6934,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>423.0977207349383</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M36" t="n">
-        <v>1266.074801429505</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T37" t="n">
-        <v>4422.636145507842</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U37" t="n">
-        <v>4139.837998053967</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V37" t="n">
-        <v>3865.952252993488</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W37" t="n">
-        <v>3586.882588502363</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X37" t="n">
-        <v>3348.538726362046</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>418.9079176142731</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C40" t="n">
-        <v>247.8145451759896</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V40" t="n">
-        <v>1348.756849250995</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W40" t="n">
-        <v>1069.687184759869</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="X40" t="n">
-        <v>831.3433226195527</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="Y40" t="n">
-        <v>606.6076240083174</v>
+        <v>1077.092362806305</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1137.123664225062</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C41" t="n">
-        <v>1137.123664225062</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D41" t="n">
-        <v>732.6597343181229</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E41" t="n">
-        <v>732.6597343181229</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F41" t="n">
-        <v>732.6597343181229</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G41" t="n">
-        <v>369.4957390198192</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K41" t="n">
-        <v>850.932214224331</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="L41" t="n">
-        <v>1394.856875555747</v>
+        <v>1047.9539810018</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.856875555747</v>
+        <v>1824.272571993554</v>
       </c>
       <c r="N41" t="n">
-        <v>1394.856875555747</v>
+        <v>2577.453588632172</v>
       </c>
       <c r="O41" t="n">
-        <v>2038.487731972852</v>
+        <v>3167.981135686361</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.644429892003</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U41" t="n">
-        <v>2672.30159063637</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V41" t="n">
-        <v>2322.464035972851</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="W41" t="n">
-        <v>1938.70373510802</v>
+        <v>3748.926052554716</v>
       </c>
       <c r="X41" t="n">
-        <v>1538.060337276972</v>
+        <v>3348.282654723669</v>
       </c>
       <c r="Y41" t="n">
-        <v>1137.123664225062</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K42" t="n">
-        <v>58.5872416475372</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L42" t="n">
-        <v>58.5872416475372</v>
+        <v>580.7321343318465</v>
       </c>
       <c r="M42" t="n">
-        <v>783.60435703581</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="N42" t="n">
-        <v>1508.621472424083</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2489.297036057147</v>
+        <v>3350.116831493106</v>
       </c>
       <c r="C43" t="n">
-        <v>2318.203663618863</v>
+        <v>3179.023459054823</v>
       </c>
       <c r="D43" t="n">
-        <v>2158.709018941773</v>
+        <v>3019.528814377732</v>
       </c>
       <c r="E43" t="n">
-        <v>1997.798203810093</v>
+        <v>2858.617999246052</v>
       </c>
       <c r="F43" t="n">
-        <v>1833.167077920684</v>
+        <v>2693.986873356643</v>
       </c>
       <c r="G43" t="n">
-        <v>1665.916686846227</v>
+        <v>2529.45658946952</v>
       </c>
       <c r="H43" t="n">
-        <v>1516.309231651684</v>
+        <v>2529.45658946952</v>
       </c>
       <c r="I43" t="n">
-        <v>1399.96318575601</v>
+        <v>2529.45658946952</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.045735161221</v>
+        <v>2543.539138874731</v>
       </c>
       <c r="K43" t="n">
-        <v>1568.598062883459</v>
+        <v>2698.091466596969</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.495163163519</v>
+        <v>2957.988566877029</v>
       </c>
       <c r="M43" t="n">
-        <v>2117.759219604013</v>
+        <v>3247.252623317522</v>
       </c>
       <c r="N43" t="n">
-        <v>2398.598001998263</v>
+        <v>3528.091405711772</v>
       </c>
       <c r="O43" t="n">
-        <v>2658.158612324737</v>
+        <v>3787.652016038247</v>
       </c>
       <c r="P43" t="n">
-        <v>2863.834052574349</v>
+        <v>3993.327456287859</v>
       </c>
       <c r="Q43" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R43" t="n">
-        <v>2844.08936405226</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S43" t="n">
-        <v>2676.996742451191</v>
+        <v>3872.46371797028</v>
       </c>
       <c r="T43" t="n">
-        <v>2676.996742451191</v>
+        <v>3632.914978946982</v>
       </c>
       <c r="U43" t="n">
-        <v>2676.996742451191</v>
+        <v>3350.116831493106</v>
       </c>
       <c r="V43" t="n">
-        <v>2676.996742451191</v>
+        <v>3350.116831493106</v>
       </c>
       <c r="W43" t="n">
-        <v>2676.996742451191</v>
+        <v>3350.116831493106</v>
       </c>
       <c r="X43" t="n">
-        <v>2676.996742451191</v>
+        <v>3350.116831493106</v>
       </c>
       <c r="Y43" t="n">
-        <v>2676.996742451191</v>
+        <v>3350.116831493106</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2117.27467387779</v>
+        <v>1498.908329015042</v>
       </c>
       <c r="C44" t="n">
-        <v>1707.15008319106</v>
+        <v>1088.783738328312</v>
       </c>
       <c r="D44" t="n">
-        <v>1302.686153284121</v>
+        <v>916.5477372512231</v>
       </c>
       <c r="E44" t="n">
-        <v>888.3459378010175</v>
+        <v>502.2075217681198</v>
       </c>
       <c r="F44" t="n">
-        <v>467.315525754705</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K44" t="n">
-        <v>123.1055953709714</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="L44" t="n">
-        <v>835.6969951832094</v>
+        <v>1047.9539810018</v>
       </c>
       <c r="M44" t="n">
-        <v>1560.714110571482</v>
+        <v>1771.169262630638</v>
       </c>
       <c r="N44" t="n">
-        <v>2285.731225959755</v>
+        <v>2524.350279269256</v>
       </c>
       <c r="O44" t="n">
-        <v>2929.36208237686</v>
+        <v>3167.981135686361</v>
       </c>
       <c r="P44" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>3701.367926831329</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V44" t="n">
-        <v>2929.36208237686</v>
+        <v>3094.46988042732</v>
       </c>
       <c r="W44" t="n">
-        <v>2929.36208237686</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X44" t="n">
-        <v>2928.432526594189</v>
+        <v>2310.066181731441</v>
       </c>
       <c r="Y44" t="n">
-        <v>2527.495853542279</v>
+        <v>1909.129508679531</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K45" t="n">
-        <v>514.3934979128359</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L45" t="n">
-        <v>514.3934979128359</v>
+        <v>862.0033225378832</v>
       </c>
       <c r="M45" t="n">
-        <v>514.3934979128359</v>
+        <v>862.0033225378832</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3934979128359</v>
+        <v>862.0033225378832</v>
       </c>
       <c r="O45" t="n">
-        <v>1218.35058845873</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="P45" t="n">
-        <v>1780.05648094726</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q45" t="n">
-        <v>2075.516918135407</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.7454385115756</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C46" t="n">
-        <v>471.7454385115756</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G46" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S46" t="n">
-        <v>1401.594370148297</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T46" t="n">
-        <v>1401.594370148297</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U46" t="n">
-        <v>1401.594370148297</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V46" t="n">
-        <v>1401.594370148297</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W46" t="n">
-        <v>1122.524705657172</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X46" t="n">
-        <v>884.1808435168552</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y46" t="n">
-        <v>659.4451449056199</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>346.8274099512328</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>455.2484763270811</v>
+        <v>96.67425672622875</v>
       </c>
       <c r="M3" t="n">
-        <v>789.9048043326325</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8079,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>415.8015292987669</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>574.5113719235467</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>455.2484763270811</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8316,7 +8318,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>154.3064439393123</v>
+        <v>292.2496847286098</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>234.5959412371208</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8696,19 +8698,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>297.4323431366474</v>
       </c>
       <c r="O11" t="n">
-        <v>264.8965524252774</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8769,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>647.0878080944599</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>643.3578456484137</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>308.3094545701926</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,19 +8935,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>264.8965524252774</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9012,10 +9014,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>681.3167988054204</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9185,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9251,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>601.0963663600584</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9960,10 +9962,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
@@ -10197,22 +10199,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>291.8133246603422</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10433,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>389.300405673794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>743.5567912259809</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10829,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10902,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>643.1706503868311</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11060,19 +11062,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>644.9042478925577</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>689.6822473976914</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11139,19 +11141,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>100.3051989065464</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3064439393123</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>823.8107109508215</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11394,10 +11396,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.137504553472</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22555,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>335.9369148769326</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22604,10 +22606,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>360.0242673938929</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,19 +22758,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>194.7158398879888</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22784,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>202.546144907427</v>
+        <v>19.01244716490032</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22835,16 +22837,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22945,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>21.30520108346079</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22999,16 +23001,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23024,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>341.6365921369069</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>251.2746465533848</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006473</v>
       </c>
     </row>
     <row r="11">
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>375.2201108762063</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>2.611629846921119</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>80.00412741576885</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>19.10615505383063</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -23482,7 +23484,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>229.9056495415524</v>
       </c>
       <c r="G14" t="n">
-        <v>358.8192935582271</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23665,7 +23667,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>123.1404754186353</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.9489193889097</v>
       </c>
       <c r="E22" t="n">
-        <v>87.7811551114101</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24257,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24376,10 +24378,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>270.2456381457547</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24458,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>308.5558614412304</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176241</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>49.19646844041398</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.09115682073005</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.066646240065</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24898,13 +24900,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25123,13 +25125,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>133.9174540021654</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>115.4622864852424</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>54.06597461814459</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.893130557883893</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>175.0704572269867</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>4.874559219806002</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>45.10864592077547</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>73.09255865588614</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.692906115460232</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>19.10615505383063</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>229.9056495415523</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>395.7167036278929</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>12.16704941423612</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26038,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>579648.196813615</v>
+        <v>495105.1722916545</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>579648.1968136148</v>
+        <v>693177.9826814141</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>579648.196813615</v>
+        <v>693177.9826814142</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579648.196813615</v>
+        <v>693177.9826814141</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579648.196813615</v>
+        <v>693177.9826814142</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753820.9728817376</v>
+        <v>753820.9728817375</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753820.9728817373</v>
+        <v>753820.9728817376</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753820.9728817374</v>
+        <v>753820.9728817375</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753820.9728817375</v>
+        <v>753820.9728817374</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753820.9728817376</v>
+        <v>753820.9728817375</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753820.9728817376</v>
+        <v>753820.9728817374</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579648.1968136148</v>
+        <v>693177.9826814139</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579648.196813615</v>
+        <v>693177.9826814142</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233874.3930239016</v>
+        <v>199771.9648954105</v>
       </c>
       <c r="C2" t="n">
-        <v>233874.3930239016</v>
+        <v>279669.3167907218</v>
       </c>
       <c r="D2" t="n">
-        <v>233874.3930239015</v>
+        <v>279669.3167907217</v>
       </c>
       <c r="E2" t="n">
-        <v>233874.3930239015</v>
+        <v>279669.3167907217</v>
       </c>
       <c r="F2" t="n">
-        <v>233874.3930239015</v>
+        <v>279669.3167907217</v>
       </c>
       <c r="G2" t="n">
-        <v>304131.1009118484</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="H2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="I2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="J2" t="n">
         <v>304131.1009118485</v>
       </c>
-      <c r="J2" t="n">
-        <v>304131.1009118483</v>
-      </c>
       <c r="K2" t="n">
-        <v>304131.1009118485</v>
+        <v>304131.1009118484</v>
       </c>
       <c r="L2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="M2" t="n">
-        <v>304131.1009118484</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="N2" t="n">
-        <v>304131.1009118486</v>
+        <v>304131.1009118485</v>
       </c>
       <c r="O2" t="n">
-        <v>233874.3930239015</v>
+        <v>279669.3167907218</v>
       </c>
       <c r="P2" t="n">
-        <v>233874.3930239016</v>
+        <v>279669.3167907218</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159160.8707514664</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>41340.88454290963</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126792.4227070339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34474.59853473142</v>
+        <v>29404.49246814041</v>
       </c>
       <c r="C4" t="n">
-        <v>34474.59853473143</v>
+        <v>41283.06155485424</v>
       </c>
       <c r="D4" t="n">
-        <v>34474.59853473143</v>
+        <v>41283.06155485424</v>
       </c>
       <c r="E4" t="n">
-        <v>34474.59853473143</v>
+        <v>41283.06155485423</v>
       </c>
       <c r="F4" t="n">
-        <v>34474.59853473143</v>
+        <v>41283.06155485424</v>
       </c>
       <c r="G4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
         <v>44919.86535090265</v>
       </c>
       <c r="I4" t="n">
+        <v>44919.86535090265</v>
+      </c>
+      <c r="J4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>44919.86535090265</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="M4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="L4" t="n">
-        <v>44919.86535090265</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="N4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="O4" t="n">
-        <v>34474.59853473143</v>
+        <v>41283.06155485424</v>
       </c>
       <c r="P4" t="n">
-        <v>34474.59853473143</v>
+        <v>41283.06155485423</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857362</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857362</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857362</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857362</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857362</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857362</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124178.2614460532</v>
+        <v>-69957.10254434154</v>
       </c>
       <c r="C6" t="n">
-        <v>121245.8908370419</v>
+        <v>-16096.81890417244</v>
       </c>
       <c r="D6" t="n">
-        <v>121245.8908370418</v>
+        <v>143064.0518472939</v>
       </c>
       <c r="E6" t="n">
-        <v>154873.4908370418</v>
+        <v>176691.6518472939</v>
       </c>
       <c r="F6" t="n">
-        <v>154873.4908370418</v>
+        <v>176691.6518472939</v>
       </c>
       <c r="G6" t="n">
-        <v>69610.84088395849</v>
+        <v>147005.1407731629</v>
       </c>
       <c r="H6" t="n">
         <v>188346.0253160725</v>
       </c>
       <c r="I6" t="n">
-        <v>188346.0253160726</v>
+        <v>188346.0253160725</v>
       </c>
       <c r="J6" t="n">
-        <v>-3266.477854280471</v>
+        <v>51751.22451017761</v>
       </c>
       <c r="K6" t="n">
-        <v>188346.0253160725</v>
+        <v>61553.60260903859</v>
       </c>
       <c r="L6" t="n">
         <v>188346.0253160725</v>
@@ -26555,13 +26557,13 @@
         <v>188346.0253160725</v>
       </c>
       <c r="N6" t="n">
-        <v>188346.0253160726</v>
+        <v>188346.0253160725</v>
       </c>
       <c r="O6" t="n">
-        <v>154873.4908370418</v>
+        <v>176691.651847294</v>
       </c>
       <c r="P6" t="n">
-        <v>154873.4908370419</v>
+        <v>176691.651847294</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522592</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522592</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522592</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522592</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522592</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522592</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>492.6503011525668</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101925</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.6503011525668</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101925</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>253.9151191946135</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>399.133952516232</v>
+        <v>40.55973291537969</v>
       </c>
       <c r="M3" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>322.8892385421476</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>480.8620086426625</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>399.133952516232</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>65.17005426609514</v>
+        <v>203.1132950553927</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>176.8444622371208</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35416,19 +35418,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>204.5200523800281</v>
       </c>
       <c r="O11" t="n">
-        <v>171.7067767994943</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>593.8944147007099</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>585.6063666484137</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>234.9858632368847</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,19 +35655,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>171.7067767994943</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>623.7525150670029</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35905,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>547.9029729663084</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>234.0618456603422</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P30" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>585.6063666484137</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>549.4188498297128</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>596.4924717719083</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>44.19067509569734</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>65.17005426609514</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>730.520486493776</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.4448860486332</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>938585.6255557269</v>
+        <v>935968.8311255748</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>84.62146965378327</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.4591671048103</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -901,16 +901,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>391.1843661633719</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>402.0293714191758</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>269.5848833179602</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1141,19 +1141,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>180.2911637867203</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.652659768006</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>85.25432609134864</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4216953850582</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,10 +1378,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>343.727549269963</v>
+        <v>328.6088012516452</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>165.4216953850582</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1618,16 +1618,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>186.9144583842969</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>121.2608025751612</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>42.4374117450767</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1858,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>88.08110241150655</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2241,19 +2241,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>46.9507788414094</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>413.7369107533264</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>283.7777510779965</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>95.54331465629893</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>356.8268763394486</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>243.833185100996</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>27.35334490128935</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3040,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>181.5733848809636</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>228.8258688538634</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>50.61039643672338</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -3489,10 +3489,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.75225210311722</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3745,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>122.75992755302</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>306.830139200297</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>162.8849810482518</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3957,16 +3957,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>170.5136410663177</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3991,10 +3991,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>70.69750854942409</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4191,7 +4191,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214528</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>856.3536062232714</v>
+        <v>1592.556869842094</v>
       </c>
       <c r="C2" t="n">
-        <v>446.2290155365415</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4330,25 +4330,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>733.4074053521598</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>733.4074053521598</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4369,13 +4369,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2068.154856770718</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1667.511458939671</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1266.574785887761</v>
+        <v>2002.778049506584</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>537.7254774811266</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1054.568412147452</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4546,16 +4546,16 @@
         <v>2113.456380014572</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.331789327842</v>
+        <v>1703.331789327843</v>
       </c>
       <c r="D5" t="n">
-        <v>1703.331789327842</v>
+        <v>1298.867859420903</v>
       </c>
       <c r="E5" t="n">
-        <v>1308.196065930496</v>
+        <v>884.5276439377999</v>
       </c>
       <c r="F5" t="n">
-        <v>887.1656538841841</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="G5" t="n">
         <v>478.4373697770162</v>
@@ -4579,16 +4579,16 @@
         <v>1824.272571993554</v>
       </c>
       <c r="N5" t="n">
-        <v>2577.453588632172</v>
+        <v>2564.906924958821</v>
       </c>
       <c r="O5" t="n">
-        <v>3221.084445049277</v>
+        <v>3208.537781375926</v>
       </c>
       <c r="P5" t="n">
-        <v>3697.137833605513</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q5" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R5" t="n">
         <v>4058.85548609037</v>
@@ -4603,16 +4603,16 @@
         <v>4058.85548609037</v>
       </c>
       <c r="V5" t="n">
-        <v>3709.01793142685</v>
+        <v>3709.017931426851</v>
       </c>
       <c r="W5" t="n">
         <v>3325.257630562019</v>
       </c>
       <c r="X5" t="n">
-        <v>2924.614232730971</v>
+        <v>2924.614232730972</v>
       </c>
       <c r="Y5" t="n">
-        <v>2523.677559679061</v>
+        <v>2523.677559679062</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J6" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K6" t="n">
-        <v>81.1771097218074</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L6" t="n">
-        <v>742.2652816410956</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="M6" t="n">
-        <v>742.2652816410956</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="N6" t="n">
-        <v>1615.923373752713</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="O6" t="n">
-        <v>2127.666305572307</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P6" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q6" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R6" t="n">
         <v>2127.666305572307</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1170.510960022944</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C7" t="n">
-        <v>999.4175875846604</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D7" t="n">
-        <v>839.9229429075704</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E7" t="n">
-        <v>679.0121277758899</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F7" t="n">
-        <v>514.3810018864812</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G7" t="n">
-        <v>347.1306108120246</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H7" t="n">
-        <v>197.5231556174813</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I7" t="n">
         <v>81.1771097218074</v>
@@ -4749,28 +4749,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1610.576006342658</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S7" t="n">
-        <v>1610.576006342658</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T7" t="n">
-        <v>1610.576006342658</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U7" t="n">
-        <v>1610.576006342658</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V7" t="n">
-        <v>1610.576006342658</v>
+        <v>544.2566704733592</v>
       </c>
       <c r="W7" t="n">
-        <v>1610.576006342658</v>
+        <v>544.2566704733592</v>
       </c>
       <c r="X7" t="n">
-        <v>1582.946365028224</v>
+        <v>305.9128083330427</v>
       </c>
       <c r="Y7" t="n">
-        <v>1358.210666416988</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2537.124802007269</v>
+        <v>1498.908329015042</v>
       </c>
       <c r="C8" t="n">
-        <v>2127.000211320539</v>
+        <v>1088.783738328312</v>
       </c>
       <c r="D8" t="n">
-        <v>1722.5362814136</v>
+        <v>684.3198084213727</v>
       </c>
       <c r="E8" t="n">
-        <v>1308.196065930496</v>
+        <v>684.3198084213727</v>
       </c>
       <c r="F8" t="n">
-        <v>887.1656538841841</v>
+        <v>263.2893963750603</v>
       </c>
       <c r="G8" t="n">
-        <v>478.4373697770162</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H8" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I8" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>81.1771097218074</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K8" t="n">
-        <v>282.2592718266461</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L8" t="n">
-        <v>994.8506716388841</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M8" t="n">
-        <v>1771.169262630638</v>
+        <v>1811.725908320203</v>
       </c>
       <c r="N8" t="n">
-        <v>2524.350279269256</v>
+        <v>2564.906924958821</v>
       </c>
       <c r="O8" t="n">
-        <v>3167.981135686361</v>
+        <v>3208.537781375926</v>
       </c>
       <c r="P8" t="n">
-        <v>3697.137833605513</v>
+        <v>3737.694479295078</v>
       </c>
       <c r="Q8" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R8" t="n">
         <v>4058.85548609037</v>
@@ -4834,22 +4834,22 @@
         <v>3923.574410884471</v>
       </c>
       <c r="T8" t="n">
-        <v>3701.367926831329</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U8" t="n">
         <v>3444.30743509084</v>
       </c>
       <c r="V8" t="n">
-        <v>3094.46988042732</v>
+        <v>3094.469880427321</v>
       </c>
       <c r="W8" t="n">
-        <v>3094.46988042732</v>
+        <v>2710.709579562489</v>
       </c>
       <c r="X8" t="n">
-        <v>3094.46988042732</v>
+        <v>2310.066181731442</v>
       </c>
       <c r="Y8" t="n">
-        <v>2947.345981671759</v>
+        <v>1909.129508679532</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J9" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K9" t="n">
-        <v>81.1771097218074</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L9" t="n">
-        <v>81.1771097218074</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="M9" t="n">
-        <v>924.154190416374</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="N9" t="n">
-        <v>1797.812282527992</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="O9" t="n">
-        <v>2127.666305572307</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P9" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R9" t="n">
         <v>2127.666305572307</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1170.510960022944</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C10" t="n">
-        <v>999.4175875846604</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D10" t="n">
-        <v>839.9229429075704</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E10" t="n">
-        <v>679.0121277758899</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F10" t="n">
-        <v>514.3810018864812</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G10" t="n">
-        <v>347.1306108120246</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H10" t="n">
-        <v>197.5231556174813</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I10" t="n">
         <v>81.1771097218074</v>
@@ -4986,28 +4986,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S10" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T10" t="n">
-        <v>1525.303288018057</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U10" t="n">
-        <v>1525.303288018057</v>
+        <v>1284.911786419008</v>
       </c>
       <c r="V10" t="n">
-        <v>1525.303288018057</v>
+        <v>1011.026041358529</v>
       </c>
       <c r="W10" t="n">
-        <v>1525.303288018057</v>
+        <v>731.9563768674037</v>
       </c>
       <c r="X10" t="n">
-        <v>1525.303288018057</v>
+        <v>493.6125147270871</v>
       </c>
       <c r="Y10" t="n">
-        <v>1358.210666416988</v>
+        <v>268.8768161158518</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2116.094389960957</v>
+        <v>2122.784586524166</v>
       </c>
       <c r="C11" t="n">
-        <v>1705.969799274227</v>
+        <v>1712.659995837436</v>
       </c>
       <c r="D11" t="n">
-        <v>1301.505869367287</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="E11" t="n">
-        <v>887.1656538841841</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F11" t="n">
         <v>887.1656538841841</v>
@@ -5053,40 +5053,40 @@
         <v>2362.432073102593</v>
       </c>
       <c r="N11" t="n">
-        <v>2564.906924958821</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O11" t="n">
-        <v>3208.537781375926</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P11" t="n">
-        <v>3737.694479295078</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q11" t="n">
-        <v>4058.85548609037</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R11" t="n">
         <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T11" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="U11" t="n">
-        <v>4058.85548609037</v>
+        <v>3666.513919143981</v>
       </c>
       <c r="V11" t="n">
-        <v>3711.655941373235</v>
+        <v>3334.585837071612</v>
       </c>
       <c r="W11" t="n">
-        <v>3327.895640508404</v>
+        <v>3334.585837071612</v>
       </c>
       <c r="X11" t="n">
-        <v>2927.252242677356</v>
+        <v>2933.942439240565</v>
       </c>
       <c r="Y11" t="n">
-        <v>2526.315569625446</v>
+        <v>2533.005766188655</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J12" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K12" t="n">
-        <v>536.9833659871061</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L12" t="n">
-        <v>1198.071537906394</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.071537906394</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="N12" t="n">
-        <v>1198.071537906394</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="O12" t="n">
-        <v>1777.821840888324</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="P12" t="n">
-        <v>1777.821840888324</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q12" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R12" t="n">
         <v>2127.666305572307</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1170.510960022944</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C13" t="n">
-        <v>999.4175875846604</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D13" t="n">
-        <v>839.9229429075704</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E13" t="n">
-        <v>679.0121277758899</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F13" t="n">
-        <v>514.3810018864812</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G13" t="n">
-        <v>347.1306108120246</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H13" t="n">
-        <v>197.5231556174813</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I13" t="n">
         <v>81.1771097218074</v>
@@ -5223,28 +5223,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S13" t="n">
-        <v>1358.210666416988</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T13" t="n">
-        <v>1358.210666416988</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.210666416988</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V13" t="n">
-        <v>1358.210666416988</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.210666416988</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X13" t="n">
-        <v>1358.210666416988</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y13" t="n">
-        <v>1358.210666416988</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1498.908329015042</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C14" t="n">
-        <v>1088.783738328312</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D14" t="n">
-        <v>684.3198084213723</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E14" t="n">
-        <v>269.979592938269</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F14" t="n">
-        <v>81.1771097218074</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G14" t="n">
-        <v>81.1771097218074</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H14" t="n">
-        <v>81.1771097218074</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I14" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>313.8131143263232</v>
+        <v>105.8174232024641</v>
       </c>
       <c r="K14" t="n">
-        <v>851.9726154353627</v>
+        <v>643.9769243115036</v>
       </c>
       <c r="L14" t="n">
-        <v>1564.564015247601</v>
+        <v>1356.568324123742</v>
       </c>
       <c r="M14" t="n">
-        <v>2340.882606239355</v>
+        <v>2132.886915115495</v>
       </c>
       <c r="N14" t="n">
-        <v>3094.063622877973</v>
+        <v>2886.067931754113</v>
       </c>
       <c r="O14" t="n">
-        <v>3737.694479295078</v>
+        <v>3529.698788171218</v>
       </c>
       <c r="P14" t="n">
-        <v>3737.694479295078</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q14" t="n">
         <v>4058.85548609037</v>
@@ -5308,22 +5308,22 @@
         <v>3923.574410884471</v>
       </c>
       <c r="T14" t="n">
-        <v>3701.367926831329</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U14" t="n">
         <v>3444.30743509084</v>
       </c>
       <c r="V14" t="n">
-        <v>3094.46988042732</v>
+        <v>3321.821775924011</v>
       </c>
       <c r="W14" t="n">
-        <v>2710.709579562489</v>
+        <v>2938.061475059179</v>
       </c>
       <c r="X14" t="n">
-        <v>2310.066181731441</v>
+        <v>2938.061475059179</v>
       </c>
       <c r="Y14" t="n">
-        <v>1909.129508679531</v>
+        <v>2537.124802007269</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>81.1771097218074</v>
       </c>
       <c r="K15" t="n">
-        <v>81.1771097218074</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L15" t="n">
-        <v>81.1771097218074</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="M15" t="n">
-        <v>550.0511229147953</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="N15" t="n">
-        <v>1423.709215026413</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.666305572307</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="P15" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q15" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R15" t="n">
         <v>2127.666305572307</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.0431821915818</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C16" t="n">
-        <v>124.0431821915818</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D16" t="n">
-        <v>124.0431821915818</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E16" t="n">
-        <v>124.0431821915818</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F16" t="n">
-        <v>124.0431821915818</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G16" t="n">
         <v>81.1771097218074</v>
@@ -5466,22 +5466,22 @@
         <v>1610.576006342658</v>
       </c>
       <c r="T16" t="n">
-        <v>1610.576006342658</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U16" t="n">
-        <v>1327.777858888782</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V16" t="n">
-        <v>1053.892113828304</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W16" t="n">
-        <v>774.8224493371781</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X16" t="n">
-        <v>536.4785871968616</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y16" t="n">
-        <v>311.7428885856262</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4563.732881158784</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.989961721529</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5703,19 +5703,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
         <v>93.2436976906228</v>
@@ -5752,7 +5752,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5779,19 +5779,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X20" t="n">
         <v>3360.349242692484</v>
@@ -5831,22 +5831,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643.6436162255084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>472.5502437872249</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X22" t="n">
-        <v>831.3433226195527</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y22" t="n">
-        <v>831.3433226195527</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3760.992640523532</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>3315.218102057671</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>3132.785987910289</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>923.0023938441032</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3132.785987910289</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4150.971659063151</v>
+        <v>1526.134195668747</v>
       </c>
       <c r="U28" t="n">
-        <v>3868.173511609275</v>
+        <v>1243.336048214871</v>
       </c>
       <c r="V28" t="n">
-        <v>3594.287766548796</v>
+        <v>969.4503031543929</v>
       </c>
       <c r="W28" t="n">
-        <v>3315.218102057671</v>
+        <v>690.3806386632673</v>
       </c>
       <c r="X28" t="n">
-        <v>3132.785987910289</v>
+        <v>452.0367765229507</v>
       </c>
       <c r="Y28" t="n">
-        <v>3132.785987910289</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
         <v>93.2436976906228</v>
@@ -6496,19 +6496,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4634.555243216706</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4634.555243216706</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U31" t="n">
-        <v>4634.555243216706</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>4634.555243216706</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>4634.555243216706</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>4634.555243216706</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2237.518802661711</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C32" t="n">
-        <v>1827.394211974981</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D32" t="n">
-        <v>1422.930282068041</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E32" t="n">
-        <v>1008.590066584938</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F32" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4182.917908737509</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V32" t="n">
-        <v>3833.080354073989</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W32" t="n">
-        <v>3449.320053209158</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X32" t="n">
-        <v>3048.67665537811</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y32" t="n">
-        <v>2647.7399823262</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4611.063271968793</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4371.514532945494</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U34" t="n">
-        <v>4088.716385491619</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V34" t="n">
-        <v>3814.830640431141</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.760975940015</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X34" t="n">
-        <v>3297.417113799698</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y34" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7022,7 +7022,7 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
         <v>1228.182536368609</v>
@@ -7119,25 +7119,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
         <v>93.2436976906228</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.888428857139</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
         <v>1789.888428857139</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.092362806305</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1077.092362806305</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>1077.092362806305</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>1077.092362806305</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2537.124802007269</v>
+        <v>1755.968820755532</v>
       </c>
       <c r="C41" t="n">
-        <v>2127.000211320539</v>
+        <v>1345.844230068802</v>
       </c>
       <c r="D41" t="n">
-        <v>1722.5362814136</v>
+        <v>1345.844230068802</v>
       </c>
       <c r="E41" t="n">
-        <v>1308.196065930496</v>
+        <v>1221.84430324757</v>
       </c>
       <c r="F41" t="n">
-        <v>887.1656538841841</v>
+        <v>800.8138912012572</v>
       </c>
       <c r="G41" t="n">
-        <v>478.4373697770162</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H41" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I41" t="n">
         <v>81.1771097218074</v>
@@ -7414,22 +7414,22 @@
         <v>335.3625811895617</v>
       </c>
       <c r="K41" t="n">
-        <v>335.3625811895617</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L41" t="n">
-        <v>1047.9539810018</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M41" t="n">
-        <v>1824.272571993554</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.453588632172</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O41" t="n">
-        <v>3167.981135686361</v>
+        <v>3489.142142481654</v>
       </c>
       <c r="P41" t="n">
-        <v>3697.137833605513</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="Q41" t="n">
         <v>4018.298840400805</v>
@@ -7438,25 +7438,25 @@
         <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T41" t="n">
-        <v>4058.85548609037</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U41" t="n">
-        <v>4058.85548609037</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.85548609037</v>
+        <v>3351.530372167811</v>
       </c>
       <c r="W41" t="n">
-        <v>3748.926052554716</v>
+        <v>2967.770071302979</v>
       </c>
       <c r="X41" t="n">
-        <v>3348.282654723669</v>
+        <v>2567.126673471932</v>
       </c>
       <c r="Y41" t="n">
-        <v>2947.345981671759</v>
+        <v>2166.190000420022</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>81.1771097218074</v>
       </c>
       <c r="K42" t="n">
-        <v>536.9833659871061</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L42" t="n">
-        <v>580.7321343318465</v>
+        <v>742.2652816410956</v>
       </c>
       <c r="M42" t="n">
-        <v>1423.709215026413</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="N42" t="n">
-        <v>1423.709215026413</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.666305572307</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P42" t="n">
-        <v>2127.666305572307</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q42" t="n">
         <v>2127.666305572307</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3350.116831493106</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C43" t="n">
-        <v>3179.023459054823</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D43" t="n">
-        <v>3019.528814377732</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E43" t="n">
-        <v>2858.617999246052</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F43" t="n">
-        <v>2693.986873356643</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G43" t="n">
-        <v>2529.45658946952</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H43" t="n">
-        <v>2529.45658946952</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I43" t="n">
-        <v>2529.45658946952</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J43" t="n">
-        <v>2543.539138874731</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K43" t="n">
-        <v>2698.091466596969</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L43" t="n">
-        <v>2957.988566877029</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M43" t="n">
-        <v>3247.252623317522</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N43" t="n">
-        <v>3528.091405711772</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O43" t="n">
-        <v>3787.652016038247</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P43" t="n">
-        <v>3993.327456287859</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q43" t="n">
-        <v>4058.85548609037</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R43" t="n">
-        <v>4058.85548609037</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S43" t="n">
-        <v>3872.46371797028</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T43" t="n">
-        <v>3632.914978946982</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U43" t="n">
-        <v>3350.116831493106</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V43" t="n">
-        <v>3350.116831493106</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W43" t="n">
-        <v>3350.116831493106</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X43" t="n">
-        <v>3350.116831493106</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y43" t="n">
-        <v>3350.116831493106</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1498.908329015042</v>
+        <v>2113.456380014572</v>
       </c>
       <c r="C44" t="n">
-        <v>1088.783738328312</v>
+        <v>1703.331789327843</v>
       </c>
       <c r="D44" t="n">
-        <v>916.5477372512231</v>
+        <v>1298.867859420903</v>
       </c>
       <c r="E44" t="n">
-        <v>502.2075217681198</v>
+        <v>884.5276439377999</v>
       </c>
       <c r="F44" t="n">
-        <v>81.1771097218074</v>
+        <v>463.4972318914874</v>
       </c>
       <c r="G44" t="n">
-        <v>81.1771097218074</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H44" t="n">
         <v>81.1771097218074</v>
@@ -7651,49 +7651,49 @@
         <v>335.3625811895617</v>
       </c>
       <c r="K44" t="n">
-        <v>335.3625811895617</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L44" t="n">
-        <v>1047.9539810018</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M44" t="n">
-        <v>1771.169262630638</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N44" t="n">
-        <v>2524.350279269256</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O44" t="n">
-        <v>3167.981135686361</v>
+        <v>3529.698788171218</v>
       </c>
       <c r="P44" t="n">
-        <v>3697.137833605513</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q44" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R44" t="n">
         <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>3923.574410884471</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T44" t="n">
-        <v>3701.367926831329</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U44" t="n">
-        <v>3444.30743509084</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V44" t="n">
-        <v>3094.46988042732</v>
+        <v>3709.017931426851</v>
       </c>
       <c r="W44" t="n">
-        <v>2710.709579562489</v>
+        <v>3325.257630562019</v>
       </c>
       <c r="X44" t="n">
-        <v>2310.066181731441</v>
+        <v>2924.614232730972</v>
       </c>
       <c r="Y44" t="n">
-        <v>1909.129508679531</v>
+        <v>2523.677559679062</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>536.9833659871061</v>
       </c>
       <c r="L45" t="n">
-        <v>862.0033225378832</v>
+        <v>1198.071537906394</v>
       </c>
       <c r="M45" t="n">
-        <v>862.0033225378832</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="N45" t="n">
-        <v>862.0033225378832</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="O45" t="n">
-        <v>1565.960413083777</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P45" t="n">
-        <v>2127.666305572307</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q45" t="n">
         <v>2127.666305572307</v>
@@ -7839,16 +7839,16 @@
         <v>1371.02726731936</v>
       </c>
       <c r="U46" t="n">
-        <v>1088.229119865484</v>
+        <v>1097.212080024963</v>
       </c>
       <c r="V46" t="n">
-        <v>814.3433748050059</v>
+        <v>823.3263349644849</v>
       </c>
       <c r="W46" t="n">
-        <v>535.2737103138802</v>
+        <v>544.2566704733592</v>
       </c>
       <c r="X46" t="n">
-        <v>296.9298481735636</v>
+        <v>305.9128083330427</v>
       </c>
       <c r="Y46" t="n">
         <v>81.1771097218074</v>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>531.0119939709983</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>96.67425672622875</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>853.701196452193</v>
+        <v>841.0277988023443</v>
       </c>
       <c r="O5" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>574.5113719235467</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>574.6635313430244</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>292.2496847286098</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>877.4504173780091</v>
+        <v>321.1815640624638</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629449</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>297.4323431366474</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>743.321953824879</v>
+        <v>146.0867917319955</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8783,16 +8783,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>643.3578456484137</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>308.3094545701926</v>
+        <v>98.21279686932478</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8944,10 +8944,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>610.0079012849245</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>90.72066712971599</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>574.6635313430244</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9406,7 +9406,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M20" t="n">
         <v>877.4504173780091</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>743.5567912259809</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10901,16 +10901,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>643.1706503868311</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10919,7 +10919,7 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11074,13 +11074,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>689.6822473976914</v>
+        <v>470.4918491009773</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11141,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>100.3051989065464</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11299,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>823.8107109508215</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.321953824879</v>
+        <v>511.4581578783156</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>384.4175102257753</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22552,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22609,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>360.0242673938929</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>312.3058366676075</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>40.68772050506294</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22789,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>19.01244716490032</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>14.79073650667351</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>1.562004291913013</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>224.3498374793758</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>251.2746465533848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.06664624006473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.611629846921119</v>
+        <v>17.73037786523895</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>19.10615505383063</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>229.9056495415524</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>225.0783765417229</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23667,7 +23667,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>123.1404754186353</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23706,7 +23706,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>36.46078111520806</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>308.5558614412304</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>110.9489193889097</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24180,10 +24180,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>62.56142803888758</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>141.609936976766</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>49.19646844041398</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>10.656701722089</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.066646240065</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>25.66401796922159</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25125,10 +25125,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>133.9174540021654</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.0704572269867</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>287.4368857752523</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>73.09255865588614</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>2.692906115460232</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25836,7 +25836,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>229.9056495415523</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>333.943492716672</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884319</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>495105.1722916545</v>
+        <v>495105.1722916546</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>693177.9826814141</v>
+        <v>693177.9826814142</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693177.9826814141</v>
+        <v>693177.9826814143</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693177.9826814142</v>
+        <v>693177.9826814143</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753820.9728817375</v>
+        <v>753820.9728817376</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753820.9728817376</v>
+        <v>753820.9728817375</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753820.9728817375</v>
+        <v>753820.9728817376</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753820.9728817374</v>
+        <v>753820.9728817376</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753820.9728817374</v>
+        <v>753820.9728817375</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753820.9728817375</v>
+        <v>753820.9728817376</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753820.9728817374</v>
+        <v>753820.9728817376</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693177.9826814139</v>
+        <v>693177.9826814142</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>199771.9648954105</v>
       </c>
       <c r="C2" t="n">
+        <v>279669.3167907217</v>
+      </c>
+      <c r="D2" t="n">
         <v>279669.3167907218</v>
       </c>
-      <c r="D2" t="n">
-        <v>279669.3167907217</v>
-      </c>
       <c r="E2" t="n">
-        <v>279669.3167907217</v>
+        <v>279669.3167907218</v>
       </c>
       <c r="F2" t="n">
         <v>279669.3167907217</v>
       </c>
       <c r="G2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="I2" t="n">
         <v>304131.1009118485</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>304131.1009118484</v>
+      </c>
+      <c r="K2" t="n">
         <v>304131.1009118485</v>
-      </c>
-      <c r="I2" t="n">
-        <v>304131.1009118484</v>
-      </c>
-      <c r="J2" t="n">
-        <v>304131.1009118485</v>
-      </c>
-      <c r="K2" t="n">
-        <v>304131.1009118484</v>
       </c>
       <c r="L2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="M2" t="n">
-        <v>304131.1009118485</v>
+        <v>304131.1009118484</v>
       </c>
       <c r="N2" t="n">
         <v>304131.1009118485</v>
       </c>
       <c r="O2" t="n">
-        <v>279669.3167907218</v>
+        <v>279669.3167907216</v>
       </c>
       <c r="P2" t="n">
-        <v>279669.3167907218</v>
+        <v>279669.3167907217</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41340.88454290963</v>
+        <v>41340.88454290959</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29404.49246814041</v>
+        <v>29404.49246814042</v>
       </c>
       <c r="C4" t="n">
+        <v>41283.06155485423</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41283.06155485423</v>
+      </c>
+      <c r="E4" t="n">
         <v>41283.06155485424</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41283.06155485424</v>
-      </c>
-      <c r="E4" t="n">
-        <v>41283.06155485423</v>
       </c>
       <c r="F4" t="n">
         <v>41283.06155485424</v>
       </c>
       <c r="G4" t="n">
+        <v>44919.86535090263</v>
+      </c>
+      <c r="H4" t="n">
         <v>44919.86535090264</v>
       </c>
-      <c r="H4" t="n">
-        <v>44919.86535090265</v>
-      </c>
       <c r="I4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="J4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="K4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="L4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="M4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="N4" t="n">
-        <v>44919.86535090264</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="O4" t="n">
-        <v>41283.06155485424</v>
+        <v>41283.06155485423</v>
       </c>
       <c r="P4" t="n">
         <v>41283.06155485423</v>
@@ -26472,16 +26472,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>95322.20338857362</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="D5" t="n">
-        <v>95322.20338857362</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="E5" t="n">
-        <v>61694.60338857362</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="F5" t="n">
-        <v>61694.60338857362</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>61694.60338857362</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="P5" t="n">
-        <v>61694.60338857362</v>
+        <v>61694.60338857363</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69957.10254434154</v>
+        <v>-70634.63140373559</v>
       </c>
       <c r="C6" t="n">
-        <v>-16096.81890417244</v>
+        <v>-16393.88418311278</v>
       </c>
       <c r="D6" t="n">
-        <v>143064.0518472939</v>
+        <v>142766.9865683538</v>
       </c>
       <c r="E6" t="n">
-        <v>176691.6518472939</v>
+        <v>176394.5865683537</v>
       </c>
       <c r="F6" t="n">
-        <v>176691.6518472939</v>
+        <v>176394.5865683536</v>
       </c>
       <c r="G6" t="n">
-        <v>147005.1407731629</v>
+        <v>146824.5601805138</v>
       </c>
       <c r="H6" t="n">
-        <v>188346.0253160725</v>
+        <v>188165.4447234234</v>
       </c>
       <c r="I6" t="n">
-        <v>188346.0253160725</v>
+        <v>188165.4447234234</v>
       </c>
       <c r="J6" t="n">
-        <v>51751.22451017761</v>
+        <v>51570.64391752833</v>
       </c>
       <c r="K6" t="n">
-        <v>61553.60260903859</v>
+        <v>61373.02201638962</v>
       </c>
       <c r="L6" t="n">
-        <v>188346.0253160725</v>
+        <v>188165.4447234234</v>
       </c>
       <c r="M6" t="n">
-        <v>188346.0253160725</v>
+        <v>188165.4447234234</v>
       </c>
       <c r="N6" t="n">
-        <v>188346.0253160725</v>
+        <v>188165.4447234234</v>
       </c>
       <c r="O6" t="n">
-        <v>176691.651847294</v>
+        <v>176394.5865683536</v>
       </c>
       <c r="P6" t="n">
-        <v>176691.651847294</v>
+        <v>176394.5865683536</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>1014.713871522592</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="D4" t="n">
-        <v>1014.713871522592</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="E4" t="n">
-        <v>1014.713871522592</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="F4" t="n">
-        <v>1014.713871522592</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26828,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.713871522592</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.713871522592</v>
+        <v>1014.713871522593</v>
       </c>
     </row>
   </sheetData>
@@ -27014,7 +27014,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>492.6503011525668</v>
+        <v>492.650301152567</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.8323496101925</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>492.650301152567</v>
+        <v>492.6503011525671</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>492.6503011525668</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>150.8323496101925</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>40.55973291537969</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>760.7889056955737</v>
+        <v>748.1155080457249</v>
       </c>
       <c r="O5" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>480.8620086426625</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>516.9120523430244</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>203.1132950553927</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>784.1601929209636</v>
+        <v>227.8913396054184</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629449</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>204.5200523800281</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>650.1321781990958</v>
+        <v>52.89701610621237</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>585.6063666484137</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>234.9858632368847</v>
+        <v>24.88920553601683</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35664,10 +35664,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>555.7482662821208</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>516.9120523430244</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M20" t="n">
         <v>784.1601929209636</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>685.9925074875634</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>585.6063666484137</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37794,13 +37794,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>596.4924717719083</v>
+        <v>377.3020734751942</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>44.19067509569734</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>730.520486493776</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>418.2683822525325</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>328.3029864149263</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
